--- a/excel_files/pan_binary_heatmap_fixed.xlsx
+++ b/excel_files/pan_binary_heatmap_fixed.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dgalambos/Documents/GitHub/meta-omics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dgalambos/Documents/GitHub/meta-omics/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1480" windowWidth="27360" windowHeight="14220" tabRatio="500"/>
+    <workbookView xWindow="14400" yWindow="440" windowWidth="14400" windowHeight="16020" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="1" r:id="rId1"/>
     <sheet name="descriptions" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="297">
   <si>
     <t>heterodisulfide reductase subunit C [EC:1.8.98.1]</t>
   </si>
@@ -1261,23 +1261,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BY105"/>
+  <dimension ref="A1:BZ105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BP1" workbookViewId="0">
-      <selection activeCell="BW10" sqref="BW10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" customWidth="1"/>
-    <col min="74" max="74" width="20.5" customWidth="1"/>
-    <col min="75" max="75" width="21.6640625" customWidth="1"/>
+    <col min="2" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" customWidth="1"/>
+    <col min="10" max="10" width="19.5" customWidth="1"/>
+    <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="75" max="75" width="20.5" customWidth="1"/>
+    <col min="76" max="76" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>219</v>
       </c>
@@ -1285,240 +1290,243 @@
         <v>220</v>
       </c>
       <c r="C1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D1" t="s">
         <v>296</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>295</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>294</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>293</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>292</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>291</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>290</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>289</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>288</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>287</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>286</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>285</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>284</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>283</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>282</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>281</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>280</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>279</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>278</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>277</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>276</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>275</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>274</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>273</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>272</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>271</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>270</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>269</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>268</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>267</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>266</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>265</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>264</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>263</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>262</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>261</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>260</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>259</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>258</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>257</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>256</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>255</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>254</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>253</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>252</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>251</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>250</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>249</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>248</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>247</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>246</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>245</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>244</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>243</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>242</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>241</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>240</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>239</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>238</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>237</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>236</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>235</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>234</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>233</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>232</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>231</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>230</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>229</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>228</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>227</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>226</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>225</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>123</v>
       </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="C2" t="s">
+        <v>102</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1629,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1641,7 +1649,7 @@
         <v>1</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1730,9 +1738,12 @@
       <c r="BW2">
         <v>0</v>
       </c>
-      <c r="BY2" s="1"/>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BZ2" s="1"/>
     </row>
-    <row r="3" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -1740,8 +1751,8 @@
       <c r="B3" t="s">
         <v>104</v>
       </c>
-      <c r="C3">
-        <v>0</v>
+      <c r="C3" t="s">
+        <v>102</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1870,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="AT3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU3">
         <v>1</v>
@@ -1879,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="AW3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX3">
         <v>0</v>
@@ -1959,9 +1970,12 @@
       <c r="BW3">
         <v>0</v>
       </c>
-      <c r="BY3" s="1"/>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BZ3" s="1"/>
     </row>
-    <row r="4" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
@@ -1969,8 +1983,8 @@
       <c r="B4" t="s">
         <v>195</v>
       </c>
-      <c r="C4">
-        <v>0</v>
+      <c r="C4" t="s">
+        <v>102</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -2009,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -2027,10 +2041,10 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -2188,9 +2202,12 @@
       <c r="BW4">
         <v>0</v>
       </c>
-      <c r="BY4" s="1"/>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BZ4" s="1"/>
     </row>
-    <row r="5" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2198,8 +2215,8 @@
       <c r="B5" t="s">
         <v>46</v>
       </c>
-      <c r="C5">
-        <v>1</v>
+      <c r="C5" t="s">
+        <v>44</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2214,16 +2231,16 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -2235,16 +2252,16 @@
         <v>1</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>1</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -2253,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5">
         <v>1</v>
@@ -2262,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -2283,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>1</v>
@@ -2295,7 +2312,7 @@
         <v>1</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -2304,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AL5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5">
         <v>1</v>
@@ -2364,13 +2381,13 @@
         <v>1</v>
       </c>
       <c r="BF5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG5">
         <v>0</v>
       </c>
       <c r="BH5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI5">
         <v>1</v>
@@ -2382,10 +2399,10 @@
         <v>1</v>
       </c>
       <c r="BL5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN5">
         <v>1</v>
@@ -2417,9 +2434,12 @@
       <c r="BW5">
         <v>1</v>
       </c>
-      <c r="BY5" s="1"/>
+      <c r="BX5">
+        <v>1</v>
+      </c>
+      <c r="BZ5" s="1"/>
     </row>
-    <row r="6" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2427,8 +2447,8 @@
       <c r="B6" t="s">
         <v>130</v>
       </c>
-      <c r="C6">
-        <v>0</v>
+      <c r="C6" t="s">
+        <v>44</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2545,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -2557,7 +2577,7 @@
         <v>1</v>
       </c>
       <c r="AT6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2646,9 +2666,12 @@
       <c r="BW6">
         <v>0</v>
       </c>
-      <c r="BY6" s="1"/>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BZ6" s="1"/>
     </row>
-    <row r="7" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2656,8 +2679,8 @@
       <c r="B7" t="s">
         <v>63</v>
       </c>
-      <c r="C7">
-        <v>0</v>
+      <c r="C7" t="s">
+        <v>44</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2774,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -2783,7 +2806,7 @@
         <v>1</v>
       </c>
       <c r="AS7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT7">
         <v>0</v>
@@ -2875,9 +2898,12 @@
       <c r="BW7">
         <v>0</v>
       </c>
-      <c r="BY7" s="1"/>
+      <c r="BX7">
+        <v>0</v>
+      </c>
+      <c r="BZ7" s="1"/>
     </row>
-    <row r="8" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2885,8 +2911,8 @@
       <c r="B8" t="s">
         <v>169</v>
       </c>
-      <c r="C8">
-        <v>0</v>
+      <c r="C8" t="s">
+        <v>44</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2925,16 +2951,16 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -3104,9 +3130,12 @@
       <c r="BW8">
         <v>0</v>
       </c>
-      <c r="BY8" s="1"/>
+      <c r="BX8">
+        <v>0</v>
+      </c>
+      <c r="BZ8" s="1"/>
     </row>
-    <row r="9" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3114,8 +3143,8 @@
       <c r="B9" t="s">
         <v>131</v>
       </c>
-      <c r="C9">
-        <v>0</v>
+      <c r="C9" t="s">
+        <v>44</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -3199,19 +3228,19 @@
         <v>0</v>
       </c>
       <c r="AE9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG9">
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ9">
         <v>0</v>
@@ -3333,9 +3362,12 @@
       <c r="BW9">
         <v>0</v>
       </c>
-      <c r="BY9" s="1"/>
+      <c r="BX9">
+        <v>0</v>
+      </c>
+      <c r="BZ9" s="1"/>
     </row>
-    <row r="10" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3343,8 +3375,8 @@
       <c r="B10" t="s">
         <v>89</v>
       </c>
-      <c r="C10">
-        <v>0</v>
+      <c r="C10" t="s">
+        <v>44</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -3428,10 +3460,10 @@
         <v>0</v>
       </c>
       <c r="AE10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10">
         <v>0</v>
@@ -3446,10 +3478,10 @@
         <v>0</v>
       </c>
       <c r="AK10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM10">
         <v>0</v>
@@ -3562,9 +3594,12 @@
       <c r="BW10">
         <v>0</v>
       </c>
-      <c r="BY10" s="1"/>
+      <c r="BX10">
+        <v>0</v>
+      </c>
+      <c r="BZ10" s="1"/>
     </row>
-    <row r="11" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3572,8 +3607,8 @@
       <c r="B11" t="s">
         <v>152</v>
       </c>
-      <c r="C11">
-        <v>0</v>
+      <c r="C11" t="s">
+        <v>34</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -3594,22 +3629,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>1</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -3645,7 +3680,7 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB11">
         <v>1</v>
@@ -3663,13 +3698,13 @@
         <v>1</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ11">
         <v>0</v>
@@ -3791,9 +3826,12 @@
       <c r="BW11">
         <v>0</v>
       </c>
-      <c r="BY11" s="1"/>
+      <c r="BX11">
+        <v>0</v>
+      </c>
+      <c r="BZ11" s="1"/>
     </row>
-    <row r="12" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3801,8 +3839,8 @@
       <c r="B12" t="s">
         <v>36</v>
       </c>
-      <c r="C12">
-        <v>0</v>
+      <c r="C12" t="s">
+        <v>34</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -3823,10 +3861,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -3874,19 +3912,19 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC12">
         <v>0</v>
       </c>
       <c r="AD12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -4020,9 +4058,12 @@
       <c r="BW12">
         <v>0</v>
       </c>
-      <c r="BY12" s="1"/>
+      <c r="BX12">
+        <v>0</v>
+      </c>
+      <c r="BZ12" s="1"/>
     </row>
-    <row r="13" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4030,8 +4071,8 @@
       <c r="B13" t="s">
         <v>178</v>
       </c>
-      <c r="C13">
-        <v>0</v>
+      <c r="C13" t="s">
+        <v>86</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -4061,13 +4102,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>1</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -4115,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="AE13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>1</v>
@@ -4127,7 +4168,7 @@
         <v>1</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ13">
         <v>0</v>
@@ -4249,9 +4290,12 @@
       <c r="BW13">
         <v>0</v>
       </c>
-      <c r="BY13" s="1"/>
+      <c r="BX13">
+        <v>0</v>
+      </c>
+      <c r="BZ13" s="1"/>
     </row>
-    <row r="14" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4259,8 +4303,8 @@
       <c r="B14" t="s">
         <v>88</v>
       </c>
-      <c r="C14">
-        <v>0</v>
+      <c r="C14" t="s">
+        <v>86</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -4281,10 +4325,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -4332,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB14">
         <v>1</v>
@@ -4344,7 +4388,7 @@
         <v>1</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -4478,9 +4522,12 @@
       <c r="BW14">
         <v>0</v>
       </c>
-      <c r="BY14" s="1"/>
+      <c r="BX14">
+        <v>0</v>
+      </c>
+      <c r="BZ14" s="1"/>
     </row>
-    <row r="15" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4488,8 +4535,8 @@
       <c r="B15" t="s">
         <v>197</v>
       </c>
-      <c r="C15">
-        <v>0</v>
+      <c r="C15" t="s">
+        <v>86</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -4540,10 +4587,10 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -4552,10 +4599,10 @@
         <v>0</v>
       </c>
       <c r="X15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -4707,9 +4754,12 @@
       <c r="BW15">
         <v>0</v>
       </c>
-      <c r="BY15" s="1"/>
+      <c r="BX15">
+        <v>0</v>
+      </c>
+      <c r="BZ15" s="1"/>
     </row>
-    <row r="16" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4717,8 +4767,8 @@
       <c r="B16" t="s">
         <v>165</v>
       </c>
-      <c r="C16">
-        <v>0</v>
+      <c r="C16" t="s">
+        <v>86</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -4763,13 +4813,13 @@
         <v>0</v>
       </c>
       <c r="R16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16">
         <v>1</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16">
         <v>0</v>
@@ -4936,9 +4986,12 @@
       <c r="BW16">
         <v>0</v>
       </c>
-      <c r="BY16" s="1"/>
+      <c r="BX16">
+        <v>0</v>
+      </c>
+      <c r="BZ16" s="1"/>
     </row>
-    <row r="17" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4946,8 +4999,8 @@
       <c r="B17" t="s">
         <v>93</v>
       </c>
-      <c r="C17">
-        <v>0</v>
+      <c r="C17" t="s">
+        <v>40</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -4998,7 +5051,7 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17">
         <v>1</v>
@@ -5013,7 +5066,7 @@
         <v>1</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -5165,9 +5218,12 @@
       <c r="BW17">
         <v>0</v>
       </c>
-      <c r="BY17" s="1"/>
+      <c r="BX17">
+        <v>0</v>
+      </c>
+      <c r="BZ17" s="1"/>
     </row>
-    <row r="18" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5175,8 +5231,8 @@
       <c r="B18" t="s">
         <v>217</v>
       </c>
-      <c r="C18">
-        <v>0</v>
+      <c r="C18" t="s">
+        <v>40</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -5206,13 +5262,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>1</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -5260,7 +5316,7 @@
         <v>0</v>
       </c>
       <c r="AE18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>1</v>
@@ -5272,7 +5328,7 @@
         <v>1</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ18">
         <v>0</v>
@@ -5394,9 +5450,12 @@
       <c r="BW18">
         <v>0</v>
       </c>
-      <c r="BY18" s="1"/>
+      <c r="BX18">
+        <v>0</v>
+      </c>
+      <c r="BZ18" s="1"/>
     </row>
-    <row r="19" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5404,8 +5463,8 @@
       <c r="B19" t="s">
         <v>42</v>
       </c>
-      <c r="C19">
-        <v>0</v>
+      <c r="C19" t="s">
+        <v>40</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -5426,10 +5485,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -5477,7 +5536,7 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB19">
         <v>1</v>
@@ -5489,7 +5548,7 @@
         <v>1</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -5623,9 +5682,12 @@
       <c r="BW19">
         <v>0</v>
       </c>
-      <c r="BY19" s="1"/>
+      <c r="BX19">
+        <v>0</v>
+      </c>
+      <c r="BZ19" s="1"/>
     </row>
-    <row r="20" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5633,8 +5695,8 @@
       <c r="B20" t="s">
         <v>210</v>
       </c>
-      <c r="C20">
-        <v>0</v>
+      <c r="C20" t="s">
+        <v>40</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -5679,13 +5741,13 @@
         <v>0</v>
       </c>
       <c r="R20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20">
         <v>1</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20">
         <v>0</v>
@@ -5852,9 +5914,12 @@
       <c r="BW20">
         <v>0</v>
       </c>
-      <c r="BY20" s="1"/>
+      <c r="BX20">
+        <v>0</v>
+      </c>
+      <c r="BZ20" s="1"/>
     </row>
-    <row r="21" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5862,8 +5927,8 @@
       <c r="B21" t="s">
         <v>122</v>
       </c>
-      <c r="C21">
-        <v>0</v>
+      <c r="C21" t="s">
+        <v>17</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -5884,22 +5949,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>1</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -5935,7 +6000,7 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB21">
         <v>1</v>
@@ -5953,7 +6018,7 @@
         <v>1</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH21">
         <v>0</v>
@@ -6061,10 +6126,10 @@
         <v>0</v>
       </c>
       <c r="BQ21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS21">
         <v>0</v>
@@ -6081,9 +6146,12 @@
       <c r="BW21">
         <v>0</v>
       </c>
-      <c r="BY21" s="1"/>
+      <c r="BX21">
+        <v>0</v>
+      </c>
+      <c r="BZ21" s="1"/>
     </row>
-    <row r="22" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -6091,8 +6159,8 @@
       <c r="B22" t="s">
         <v>19</v>
       </c>
-      <c r="C22">
-        <v>0</v>
+      <c r="C22" t="s">
+        <v>17</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -6122,13 +6190,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>1</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -6176,7 +6244,7 @@
         <v>0</v>
       </c>
       <c r="AE22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>1</v>
@@ -6188,7 +6256,7 @@
         <v>1</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ22">
         <v>0</v>
@@ -6310,9 +6378,12 @@
       <c r="BW22">
         <v>0</v>
       </c>
-      <c r="BY22" s="1"/>
+      <c r="BX22">
+        <v>0</v>
+      </c>
+      <c r="BZ22" s="1"/>
     </row>
-    <row r="23" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -6320,8 +6391,8 @@
       <c r="B23" t="s">
         <v>56</v>
       </c>
-      <c r="C23">
-        <v>0</v>
+      <c r="C23" t="s">
+        <v>54</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -6342,22 +6413,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>1</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -6393,7 +6464,7 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB23">
         <v>1</v>
@@ -6414,7 +6485,7 @@
         <v>1</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI23">
         <v>0</v>
@@ -6539,9 +6610,12 @@
       <c r="BW23">
         <v>0</v>
       </c>
-      <c r="BY23" s="1"/>
+      <c r="BX23">
+        <v>0</v>
+      </c>
+      <c r="BZ23" s="1"/>
     </row>
-    <row r="24" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -6549,8 +6623,8 @@
       <c r="B24" t="s">
         <v>91</v>
       </c>
-      <c r="C24">
-        <v>0</v>
+      <c r="C24" t="s">
+        <v>5</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -6571,22 +6645,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>1</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -6622,13 +6696,13 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD24">
         <v>1</v>
@@ -6643,7 +6717,7 @@
         <v>1</v>
       </c>
       <c r="AH24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI24">
         <v>0</v>
@@ -6768,9 +6842,12 @@
       <c r="BW24">
         <v>0</v>
       </c>
-      <c r="BY24" s="1"/>
+      <c r="BX24">
+        <v>0</v>
+      </c>
+      <c r="BZ24" s="1"/>
     </row>
-    <row r="25" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -6778,8 +6855,8 @@
       <c r="B25" t="s">
         <v>196</v>
       </c>
-      <c r="C25">
-        <v>0</v>
+      <c r="C25" t="s">
+        <v>5</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -6800,10 +6877,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -6851,19 +6928,19 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD25">
         <v>1</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -6997,9 +7074,12 @@
       <c r="BW25">
         <v>0</v>
       </c>
-      <c r="BY25" s="1"/>
+      <c r="BX25">
+        <v>0</v>
+      </c>
+      <c r="BZ25" s="1"/>
     </row>
-    <row r="26" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -7007,8 +7087,8 @@
       <c r="B26" t="s">
         <v>7</v>
       </c>
-      <c r="C26">
-        <v>0</v>
+      <c r="C26" t="s">
+        <v>5</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -7038,13 +7118,13 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26">
         <v>1</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -7226,9 +7306,12 @@
       <c r="BW26">
         <v>0</v>
       </c>
-      <c r="BY26" s="1"/>
+      <c r="BX26">
+        <v>0</v>
+      </c>
+      <c r="BZ26" s="1"/>
     </row>
-    <row r="27" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -7236,8 +7319,8 @@
       <c r="B27" t="s">
         <v>83</v>
       </c>
-      <c r="C27">
-        <v>0</v>
+      <c r="C27" t="s">
+        <v>49</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -7258,10 +7341,10 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -7309,19 +7392,19 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD27">
         <v>1</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -7455,9 +7538,12 @@
       <c r="BW27">
         <v>0</v>
       </c>
-      <c r="BY27" s="1"/>
+      <c r="BX27">
+        <v>0</v>
+      </c>
+      <c r="BZ27" s="1"/>
     </row>
-    <row r="28" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -7465,8 +7551,8 @@
       <c r="B28" t="s">
         <v>51</v>
       </c>
-      <c r="C28">
-        <v>0</v>
+      <c r="C28" t="s">
+        <v>49</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -7496,13 +7582,13 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28">
         <v>1</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -7684,9 +7770,12 @@
       <c r="BW28">
         <v>0</v>
       </c>
-      <c r="BY28" s="1"/>
+      <c r="BX28">
+        <v>0</v>
+      </c>
+      <c r="BZ28" s="1"/>
     </row>
-    <row r="29" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -7694,8 +7783,8 @@
       <c r="B29" t="s">
         <v>114</v>
       </c>
-      <c r="C29">
-        <v>0</v>
+      <c r="C29" t="s">
+        <v>49</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -7779,13 +7868,13 @@
         <v>0</v>
       </c>
       <c r="AE29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>1</v>
       </c>
       <c r="AG29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH29">
         <v>0</v>
@@ -7913,9 +8002,12 @@
       <c r="BW29">
         <v>0</v>
       </c>
-      <c r="BY29" s="1"/>
+      <c r="BX29">
+        <v>0</v>
+      </c>
+      <c r="BZ29" s="1"/>
     </row>
-    <row r="30" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -7923,8 +8015,8 @@
       <c r="B30" t="s">
         <v>150</v>
       </c>
-      <c r="C30">
-        <v>0</v>
+      <c r="C30" t="s">
+        <v>98</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -7945,22 +8037,22 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30">
         <v>1</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -7996,7 +8088,7 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB30">
         <v>1</v>
@@ -8008,16 +8100,16 @@
         <v>1</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF30">
         <v>0</v>
       </c>
       <c r="AG30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI30">
         <v>0</v>
@@ -8142,9 +8234,12 @@
       <c r="BW30">
         <v>0</v>
       </c>
-      <c r="BY30" s="1"/>
+      <c r="BX30">
+        <v>0</v>
+      </c>
+      <c r="BZ30" s="1"/>
     </row>
-    <row r="31" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -8152,8 +8247,8 @@
       <c r="B31" t="s">
         <v>100</v>
       </c>
-      <c r="C31">
-        <v>0</v>
+      <c r="C31" t="s">
+        <v>98</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -8237,13 +8332,13 @@
         <v>0</v>
       </c>
       <c r="AE31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>1</v>
       </c>
       <c r="AG31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH31">
         <v>0</v>
@@ -8371,9 +8466,12 @@
       <c r="BW31">
         <v>0</v>
       </c>
-      <c r="BY31" s="1"/>
+      <c r="BX31">
+        <v>0</v>
+      </c>
+      <c r="BZ31" s="1"/>
     </row>
-    <row r="32" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -8381,8 +8479,8 @@
       <c r="B32" t="s">
         <v>113</v>
       </c>
-      <c r="C32">
-        <v>0</v>
+      <c r="C32" t="s">
+        <v>111</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -8469,16 +8567,16 @@
         <v>0</v>
       </c>
       <c r="AF32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ32">
         <v>0</v>
@@ -8600,9 +8698,12 @@
       <c r="BW32">
         <v>0</v>
       </c>
-      <c r="BY32" s="1"/>
+      <c r="BX32">
+        <v>0</v>
+      </c>
+      <c r="BZ32" s="1"/>
     </row>
-    <row r="33" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -8610,8 +8711,8 @@
       <c r="B33" t="s">
         <v>141</v>
       </c>
-      <c r="C33">
-        <v>0</v>
+      <c r="C33" t="s">
+        <v>111</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -8695,19 +8796,19 @@
         <v>0</v>
       </c>
       <c r="AE33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG33">
         <v>0</v>
       </c>
       <c r="AH33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ33">
         <v>0</v>
@@ -8829,9 +8930,12 @@
       <c r="BW33">
         <v>0</v>
       </c>
-      <c r="BY33" s="1"/>
+      <c r="BX33">
+        <v>0</v>
+      </c>
+      <c r="BZ33" s="1"/>
     </row>
-    <row r="34" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -8839,8 +8943,8 @@
       <c r="B34" t="s">
         <v>148</v>
       </c>
-      <c r="C34">
-        <v>0</v>
+      <c r="C34" t="s">
+        <v>111</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -8942,10 +9046,10 @@
         <v>0</v>
       </c>
       <c r="AK34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM34">
         <v>0</v>
@@ -8987,10 +9091,10 @@
         <v>0</v>
       </c>
       <c r="AZ34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB34">
         <v>0</v>
@@ -9058,9 +9162,12 @@
       <c r="BW34">
         <v>0</v>
       </c>
-      <c r="BY34" s="1"/>
+      <c r="BX34">
+        <v>0</v>
+      </c>
+      <c r="BZ34" s="1"/>
     </row>
-    <row r="35" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -9068,8 +9175,8 @@
       <c r="B35" t="s">
         <v>180</v>
       </c>
-      <c r="C35">
-        <v>0</v>
+      <c r="C35" t="s">
+        <v>154</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -9090,10 +9197,10 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -9141,7 +9248,7 @@
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB35">
         <v>1</v>
@@ -9153,7 +9260,7 @@
         <v>1</v>
       </c>
       <c r="AE35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -9287,9 +9394,12 @@
       <c r="BW35">
         <v>0</v>
       </c>
-      <c r="BY35" s="1"/>
+      <c r="BX35">
+        <v>0</v>
+      </c>
+      <c r="BZ35" s="1"/>
     </row>
-    <row r="36" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -9297,8 +9407,8 @@
       <c r="B36" t="s">
         <v>156</v>
       </c>
-      <c r="C36">
-        <v>0</v>
+      <c r="C36" t="s">
+        <v>154</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -9397,13 +9507,13 @@
         <v>0</v>
       </c>
       <c r="AJ36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK36">
         <v>1</v>
       </c>
       <c r="AL36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM36">
         <v>0</v>
@@ -9516,9 +9626,12 @@
       <c r="BW36">
         <v>0</v>
       </c>
-      <c r="BY36" s="1"/>
+      <c r="BX36">
+        <v>0</v>
+      </c>
+      <c r="BZ36" s="1"/>
     </row>
-    <row r="37" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -9526,8 +9639,8 @@
       <c r="B37" t="s">
         <v>214</v>
       </c>
-      <c r="C37">
-        <v>0</v>
+      <c r="C37" t="s">
+        <v>154</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -9557,13 +9670,13 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37">
         <v>1</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37">
         <v>0</v>
@@ -9745,9 +9858,12 @@
       <c r="BW37">
         <v>0</v>
       </c>
-      <c r="BY37" s="1"/>
+      <c r="BX37">
+        <v>0</v>
+      </c>
+      <c r="BZ37" s="1"/>
     </row>
-    <row r="38" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -9755,8 +9871,8 @@
       <c r="B38" t="s">
         <v>201</v>
       </c>
-      <c r="C38">
-        <v>0</v>
+      <c r="C38" t="s">
+        <v>94</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -9777,10 +9893,10 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -9828,7 +9944,7 @@
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB38">
         <v>1</v>
@@ -9840,7 +9956,7 @@
         <v>1</v>
       </c>
       <c r="AE38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -9974,9 +10090,12 @@
       <c r="BW38">
         <v>0</v>
       </c>
-      <c r="BY38" s="1"/>
+      <c r="BX38">
+        <v>0</v>
+      </c>
+      <c r="BZ38" s="1"/>
     </row>
-    <row r="39" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -9984,8 +10103,8 @@
       <c r="B39" t="s">
         <v>96</v>
       </c>
-      <c r="C39">
-        <v>0</v>
+      <c r="C39" t="s">
+        <v>94</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -10015,13 +10134,13 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39">
         <v>1</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -10072,13 +10191,13 @@
         <v>0</v>
       </c>
       <c r="AF39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG39">
         <v>1</v>
       </c>
       <c r="AH39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI39">
         <v>0</v>
@@ -10203,9 +10322,12 @@
       <c r="BW39">
         <v>0</v>
       </c>
-      <c r="BY39" s="1"/>
+      <c r="BX39">
+        <v>0</v>
+      </c>
+      <c r="BZ39" s="1"/>
     </row>
-    <row r="40" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -10213,8 +10335,8 @@
       <c r="B40" t="s">
         <v>27</v>
       </c>
-      <c r="C40">
-        <v>0</v>
+      <c r="C40" t="s">
+        <v>25</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -10235,10 +10357,10 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -10286,7 +10408,7 @@
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB40">
         <v>1</v>
@@ -10298,7 +10420,7 @@
         <v>1</v>
       </c>
       <c r="AE40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -10432,9 +10554,12 @@
       <c r="BW40">
         <v>0</v>
       </c>
-      <c r="BY40" s="1"/>
+      <c r="BX40">
+        <v>0</v>
+      </c>
+      <c r="BZ40" s="1"/>
     </row>
-    <row r="41" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -10442,8 +10567,8 @@
       <c r="B41" t="s">
         <v>133</v>
       </c>
-      <c r="C41">
-        <v>0</v>
+      <c r="C41" t="s">
+        <v>13</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -10464,16 +10589,16 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41">
         <v>0</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -10482,13 +10607,13 @@
         <v>1</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
         <v>0</v>
       </c>
       <c r="R41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S41">
         <v>1</v>
@@ -10509,19 +10634,19 @@
         <v>1</v>
       </c>
       <c r="Y41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD41">
         <v>1</v>
@@ -10539,7 +10664,7 @@
         <v>1</v>
       </c>
       <c r="AI41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ41">
         <v>0</v>
@@ -10661,9 +10786,12 @@
       <c r="BW41">
         <v>0</v>
       </c>
-      <c r="BY41" s="1"/>
+      <c r="BX41">
+        <v>0</v>
+      </c>
+      <c r="BZ41" s="1"/>
     </row>
-    <row r="42" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -10671,8 +10799,8 @@
       <c r="B42" t="s">
         <v>167</v>
       </c>
-      <c r="C42">
-        <v>0</v>
+      <c r="C42" t="s">
+        <v>13</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -10693,22 +10821,22 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42">
         <v>0</v>
       </c>
       <c r="M42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42">
         <v>1</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42">
         <v>0</v>
@@ -10717,7 +10845,7 @@
         <v>0</v>
       </c>
       <c r="R42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S42">
         <v>1</v>
@@ -10738,19 +10866,19 @@
         <v>1</v>
       </c>
       <c r="Y42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z42">
         <v>0</v>
       </c>
       <c r="AA42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD42">
         <v>1</v>
@@ -10765,7 +10893,7 @@
         <v>1</v>
       </c>
       <c r="AH42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI42">
         <v>0</v>
@@ -10890,9 +11018,12 @@
       <c r="BW42">
         <v>0</v>
       </c>
-      <c r="BY42" s="1"/>
+      <c r="BX42">
+        <v>0</v>
+      </c>
+      <c r="BZ42" s="1"/>
     </row>
-    <row r="43" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -10900,17 +11031,17 @@
       <c r="B43" t="s">
         <v>58</v>
       </c>
-      <c r="C43">
-        <v>0</v>
+      <c r="C43" t="s">
+        <v>13</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -10934,28 +11065,28 @@
         <v>0</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V43">
         <v>0</v>
@@ -10964,10 +11095,10 @@
         <v>0</v>
       </c>
       <c r="X43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z43">
         <v>0</v>
@@ -10988,10 +11119,10 @@
         <v>0</v>
       </c>
       <c r="AF43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH43">
         <v>0</v>
@@ -11069,10 +11200,10 @@
         <v>0</v>
       </c>
       <c r="BG43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI43">
         <v>0</v>
@@ -11119,9 +11250,12 @@
       <c r="BW43">
         <v>0</v>
       </c>
-      <c r="BY43" s="1"/>
+      <c r="BX43">
+        <v>0</v>
+      </c>
+      <c r="BZ43" s="1"/>
     </row>
-    <row r="44" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -11129,8 +11263,8 @@
       <c r="B44" t="s">
         <v>207</v>
       </c>
-      <c r="C44">
-        <v>0</v>
+      <c r="C44" t="s">
+        <v>13</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -11151,10 +11285,10 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -11202,19 +11336,19 @@
         <v>0</v>
       </c>
       <c r="AA44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD44">
         <v>1</v>
       </c>
       <c r="AE44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -11348,9 +11482,12 @@
       <c r="BW44">
         <v>0</v>
       </c>
-      <c r="BY44" s="1"/>
+      <c r="BX44">
+        <v>0</v>
+      </c>
+      <c r="BZ44" s="1"/>
     </row>
-    <row r="45" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -11358,8 +11495,8 @@
       <c r="B45" t="s">
         <v>38</v>
       </c>
-      <c r="C45">
-        <v>0</v>
+      <c r="C45" t="s">
+        <v>13</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -11410,10 +11547,10 @@
         <v>0</v>
       </c>
       <c r="T45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V45">
         <v>0</v>
@@ -11422,10 +11559,10 @@
         <v>0</v>
       </c>
       <c r="X45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z45">
         <v>0</v>
@@ -11577,9 +11714,12 @@
       <c r="BW45">
         <v>0</v>
       </c>
-      <c r="BY45" s="1"/>
+      <c r="BX45">
+        <v>0</v>
+      </c>
+      <c r="BZ45" s="1"/>
     </row>
-    <row r="46" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -11587,8 +11727,8 @@
       <c r="B46" t="s">
         <v>109</v>
       </c>
-      <c r="C46">
-        <v>0</v>
+      <c r="C46" t="s">
+        <v>13</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -11636,13 +11776,13 @@
         <v>0</v>
       </c>
       <c r="S46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V46">
         <v>1</v>
@@ -11651,7 +11791,7 @@
         <v>1</v>
       </c>
       <c r="X46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y46">
         <v>0</v>
@@ -11806,9 +11946,12 @@
       <c r="BW46">
         <v>0</v>
       </c>
-      <c r="BY46" s="1"/>
+      <c r="BX46">
+        <v>0</v>
+      </c>
+      <c r="BZ46" s="1"/>
     </row>
-    <row r="47" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -11816,8 +11959,8 @@
       <c r="B47" t="s">
         <v>213</v>
       </c>
-      <c r="C47">
-        <v>0</v>
+      <c r="C47" t="s">
+        <v>13</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -11862,13 +12005,13 @@
         <v>0</v>
       </c>
       <c r="R47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S47">
         <v>1</v>
       </c>
       <c r="T47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U47">
         <v>0</v>
@@ -12035,9 +12178,12 @@
       <c r="BW47">
         <v>0</v>
       </c>
-      <c r="BY47" s="1"/>
+      <c r="BX47">
+        <v>0</v>
+      </c>
+      <c r="BZ47" s="1"/>
     </row>
-    <row r="48" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -12045,8 +12191,8 @@
       <c r="B48" t="s">
         <v>189</v>
       </c>
-      <c r="C48">
-        <v>0</v>
+      <c r="C48" t="s">
+        <v>13</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -12091,13 +12237,13 @@
         <v>0</v>
       </c>
       <c r="R48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S48">
         <v>1</v>
       </c>
       <c r="T48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48">
         <v>0</v>
@@ -12264,9 +12410,12 @@
       <c r="BW48">
         <v>0</v>
       </c>
-      <c r="BY48" s="1"/>
+      <c r="BX48">
+        <v>0</v>
+      </c>
+      <c r="BZ48" s="1"/>
     </row>
-    <row r="49" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -12274,8 +12423,8 @@
       <c r="B49" t="s">
         <v>15</v>
       </c>
-      <c r="C49">
-        <v>0</v>
+      <c r="C49" t="s">
+        <v>13</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -12320,13 +12469,13 @@
         <v>0</v>
       </c>
       <c r="R49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S49">
         <v>1</v>
       </c>
       <c r="T49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U49">
         <v>0</v>
@@ -12493,9 +12642,12 @@
       <c r="BW49">
         <v>0</v>
       </c>
-      <c r="BY49" s="1"/>
+      <c r="BX49">
+        <v>0</v>
+      </c>
+      <c r="BZ49" s="1"/>
     </row>
-    <row r="50" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -12503,8 +12655,8 @@
       <c r="B50" t="s">
         <v>140</v>
       </c>
-      <c r="C50">
-        <v>0</v>
+      <c r="C50" t="s">
+        <v>13</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -12549,13 +12701,13 @@
         <v>0</v>
       </c>
       <c r="R50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S50">
         <v>1</v>
       </c>
       <c r="T50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U50">
         <v>0</v>
@@ -12722,9 +12874,12 @@
       <c r="BW50">
         <v>0</v>
       </c>
-      <c r="BY50" s="1"/>
+      <c r="BX50">
+        <v>0</v>
+      </c>
+      <c r="BZ50" s="1"/>
     </row>
-    <row r="51" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -12732,8 +12887,8 @@
       <c r="B51" t="s">
         <v>161</v>
       </c>
-      <c r="C51">
-        <v>0</v>
+      <c r="C51" t="s">
+        <v>13</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -12763,13 +12918,13 @@
         <v>0</v>
       </c>
       <c r="M51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51">
         <v>1</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51">
         <v>0</v>
@@ -12951,9 +13106,12 @@
       <c r="BW51">
         <v>0</v>
       </c>
-      <c r="BY51" s="1"/>
+      <c r="BX51">
+        <v>0</v>
+      </c>
+      <c r="BZ51" s="1"/>
     </row>
-    <row r="52" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -12961,8 +13119,8 @@
       <c r="B52" t="s">
         <v>76</v>
       </c>
-      <c r="C52">
-        <v>0</v>
+      <c r="C52" t="s">
+        <v>13</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -13025,10 +13183,10 @@
         <v>0</v>
       </c>
       <c r="X52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z52">
         <v>0</v>
@@ -13046,10 +13204,10 @@
         <v>0</v>
       </c>
       <c r="AE52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG52">
         <v>0</v>
@@ -13180,9 +13338,12 @@
       <c r="BW52">
         <v>0</v>
       </c>
-      <c r="BY52" s="1"/>
+      <c r="BX52">
+        <v>0</v>
+      </c>
+      <c r="BZ52" s="1"/>
     </row>
-    <row r="53" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -13190,17 +13351,17 @@
       <c r="B53" t="s">
         <v>28</v>
       </c>
-      <c r="C53">
-        <v>0</v>
+      <c r="C53" t="s">
+        <v>13</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -13209,10 +13370,10 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -13409,9 +13570,12 @@
       <c r="BW53">
         <v>0</v>
       </c>
-      <c r="BY53" s="1"/>
+      <c r="BX53">
+        <v>0</v>
+      </c>
+      <c r="BZ53" s="1"/>
     </row>
-    <row r="54" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -13419,8 +13583,8 @@
       <c r="B54" t="s">
         <v>142</v>
       </c>
-      <c r="C54">
-        <v>0</v>
+      <c r="C54" t="s">
+        <v>65</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -13441,10 +13605,10 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -13492,7 +13656,7 @@
         <v>0</v>
       </c>
       <c r="AA54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB54">
         <v>1</v>
@@ -13510,13 +13674,13 @@
         <v>1</v>
       </c>
       <c r="AG54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ54">
         <v>0</v>
@@ -13638,9 +13802,12 @@
       <c r="BW54">
         <v>0</v>
       </c>
-      <c r="BY54" s="1"/>
+      <c r="BX54">
+        <v>0</v>
+      </c>
+      <c r="BZ54" s="1"/>
     </row>
-    <row r="55" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -13648,8 +13815,8 @@
       <c r="B55" t="s">
         <v>139</v>
       </c>
-      <c r="C55">
-        <v>0</v>
+      <c r="C55" t="s">
+        <v>65</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -13694,13 +13861,13 @@
         <v>0</v>
       </c>
       <c r="R55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S55">
         <v>1</v>
       </c>
       <c r="T55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U55">
         <v>0</v>
@@ -13867,9 +14034,12 @@
       <c r="BW55">
         <v>0</v>
       </c>
-      <c r="BY55" s="1"/>
+      <c r="BX55">
+        <v>0</v>
+      </c>
+      <c r="BZ55" s="1"/>
     </row>
-    <row r="56" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -13877,8 +14047,8 @@
       <c r="B56" t="s">
         <v>186</v>
       </c>
-      <c r="C56">
-        <v>0</v>
+      <c r="C56" t="s">
+        <v>65</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -13908,13 +14078,13 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56">
         <v>1</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P56">
         <v>0</v>
@@ -14096,9 +14266,12 @@
       <c r="BW56">
         <v>0</v>
       </c>
-      <c r="BY56" s="1"/>
+      <c r="BX56">
+        <v>0</v>
+      </c>
+      <c r="BZ56" s="1"/>
     </row>
-    <row r="57" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -14106,8 +14279,8 @@
       <c r="B57" t="s">
         <v>162</v>
       </c>
-      <c r="C57">
-        <v>0</v>
+      <c r="C57" t="s">
+        <v>65</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -14137,13 +14310,13 @@
         <v>0</v>
       </c>
       <c r="M57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N57">
         <v>1</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P57">
         <v>0</v>
@@ -14325,9 +14498,12 @@
       <c r="BW57">
         <v>0</v>
       </c>
-      <c r="BY57" s="1"/>
+      <c r="BX57">
+        <v>0</v>
+      </c>
+      <c r="BZ57" s="1"/>
     </row>
-    <row r="58" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -14335,17 +14511,17 @@
       <c r="B58" t="s">
         <v>77</v>
       </c>
-      <c r="C58">
-        <v>0</v>
+      <c r="C58" t="s">
+        <v>65</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -14354,10 +14530,10 @@
         <v>0</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -14554,9 +14730,12 @@
       <c r="BW58">
         <v>0</v>
       </c>
-      <c r="BY58" s="1"/>
+      <c r="BX58">
+        <v>0</v>
+      </c>
+      <c r="BZ58" s="1"/>
     </row>
-    <row r="59" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -14564,8 +14743,8 @@
       <c r="B59" t="s">
         <v>200</v>
       </c>
-      <c r="C59">
-        <v>0</v>
+      <c r="C59" t="s">
+        <v>65</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -14610,13 +14789,13 @@
         <v>0</v>
       </c>
       <c r="R59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S59">
         <v>1</v>
       </c>
       <c r="T59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U59">
         <v>0</v>
@@ -14783,9 +14962,12 @@
       <c r="BW59">
         <v>0</v>
       </c>
-      <c r="BY59" s="1"/>
+      <c r="BX59">
+        <v>0</v>
+      </c>
+      <c r="BZ59" s="1"/>
     </row>
-    <row r="60" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -14793,8 +14975,8 @@
       <c r="B60" t="s">
         <v>153</v>
       </c>
-      <c r="C60">
-        <v>0</v>
+      <c r="C60" t="s">
+        <v>65</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -14845,13 +15027,13 @@
         <v>0</v>
       </c>
       <c r="T60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U60">
         <v>1</v>
       </c>
       <c r="V60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W60">
         <v>0</v>
@@ -15012,9 +15194,12 @@
       <c r="BW60">
         <v>0</v>
       </c>
-      <c r="BY60" s="1"/>
+      <c r="BX60">
+        <v>0</v>
+      </c>
+      <c r="BZ60" s="1"/>
     </row>
-    <row r="61" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -15022,8 +15207,8 @@
       <c r="B61" t="s">
         <v>67</v>
       </c>
-      <c r="C61">
-        <v>0</v>
+      <c r="C61" t="s">
+        <v>65</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -15086,10 +15271,10 @@
         <v>0</v>
       </c>
       <c r="X61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z61">
         <v>0</v>
@@ -15107,10 +15292,10 @@
         <v>0</v>
       </c>
       <c r="AE61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG61">
         <v>0</v>
@@ -15241,9 +15426,12 @@
       <c r="BW61">
         <v>0</v>
       </c>
-      <c r="BY61" s="1"/>
+      <c r="BX61">
+        <v>0</v>
+      </c>
+      <c r="BZ61" s="1"/>
     </row>
-    <row r="62" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -15251,8 +15439,8 @@
       <c r="B62" t="s">
         <v>163</v>
       </c>
-      <c r="C62">
-        <v>0</v>
+      <c r="C62" t="s">
+        <v>65</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -15297,16 +15485,16 @@
         <v>0</v>
       </c>
       <c r="R62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V62">
         <v>0</v>
@@ -15470,9 +15658,12 @@
       <c r="BW62">
         <v>0</v>
       </c>
-      <c r="BY62" s="1"/>
+      <c r="BX62">
+        <v>0</v>
+      </c>
+      <c r="BZ62" s="1"/>
     </row>
-    <row r="63" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -15480,8 +15671,8 @@
       <c r="B63" t="s">
         <v>216</v>
       </c>
-      <c r="C63">
-        <v>0</v>
+      <c r="C63" t="s">
+        <v>65</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -15526,13 +15717,13 @@
         <v>0</v>
       </c>
       <c r="R63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S63">
         <v>1</v>
       </c>
       <c r="T63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U63">
         <v>0</v>
@@ -15699,9 +15890,12 @@
       <c r="BW63">
         <v>0</v>
       </c>
-      <c r="BY63" s="1"/>
+      <c r="BX63">
+        <v>0</v>
+      </c>
+      <c r="BZ63" s="1"/>
     </row>
-    <row r="64" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -15709,8 +15903,8 @@
       <c r="B64" t="s">
         <v>202</v>
       </c>
-      <c r="C64">
-        <v>0</v>
+      <c r="C64" t="s">
+        <v>1</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -15731,10 +15925,10 @@
         <v>0</v>
       </c>
       <c r="J64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64">
         <v>0</v>
@@ -15782,7 +15976,7 @@
         <v>0</v>
       </c>
       <c r="AA64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB64">
         <v>1</v>
@@ -15794,7 +15988,7 @@
         <v>1</v>
       </c>
       <c r="AE64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -15928,9 +16122,12 @@
       <c r="BW64">
         <v>0</v>
       </c>
-      <c r="BY64" s="1"/>
+      <c r="BX64">
+        <v>0</v>
+      </c>
+      <c r="BZ64" s="1"/>
     </row>
-    <row r="65" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -15938,8 +16135,8 @@
       <c r="B65" t="s">
         <v>188</v>
       </c>
-      <c r="C65">
-        <v>0</v>
+      <c r="C65" t="s">
+        <v>1</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -16023,19 +16220,19 @@
         <v>0</v>
       </c>
       <c r="AE65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF65">
         <v>1</v>
       </c>
       <c r="AG65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ65">
         <v>0</v>
@@ -16157,9 +16354,12 @@
       <c r="BW65">
         <v>0</v>
       </c>
-      <c r="BY65" s="1"/>
+      <c r="BX65">
+        <v>0</v>
+      </c>
+      <c r="BZ65" s="1"/>
     </row>
-    <row r="66" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -16167,17 +16367,17 @@
       <c r="B66" t="s">
         <v>78</v>
       </c>
-      <c r="C66">
-        <v>0</v>
+      <c r="C66" t="s">
+        <v>1</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -16186,10 +16386,10 @@
         <v>0</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -16386,9 +16586,12 @@
       <c r="BW66">
         <v>0</v>
       </c>
-      <c r="BY66" s="1"/>
+      <c r="BX66">
+        <v>0</v>
+      </c>
+      <c r="BZ66" s="1"/>
     </row>
-    <row r="67" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -16396,8 +16599,8 @@
       <c r="B67" t="s">
         <v>149</v>
       </c>
-      <c r="C67">
-        <v>0</v>
+      <c r="C67" t="s">
+        <v>1</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -16451,7 +16654,7 @@
         <v>0</v>
       </c>
       <c r="U67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V67">
         <v>1</v>
@@ -16460,7 +16663,7 @@
         <v>1</v>
       </c>
       <c r="X67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y67">
         <v>0</v>
@@ -16615,9 +16818,12 @@
       <c r="BW67">
         <v>0</v>
       </c>
-      <c r="BY67" s="1"/>
+      <c r="BX67">
+        <v>0</v>
+      </c>
+      <c r="BZ67" s="1"/>
     </row>
-    <row r="68" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A68">
         <f t="shared" ref="A68:A105" si="1">A67+1</f>
         <v>67</v>
@@ -16625,8 +16831,8 @@
       <c r="B68" t="s">
         <v>138</v>
       </c>
-      <c r="C68">
-        <v>0</v>
+      <c r="C68" t="s">
+        <v>1</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -16671,13 +16877,13 @@
         <v>0</v>
       </c>
       <c r="R68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S68">
         <v>1</v>
       </c>
       <c r="T68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U68">
         <v>0</v>
@@ -16844,9 +17050,12 @@
       <c r="BW68">
         <v>0</v>
       </c>
-      <c r="BY68" s="1"/>
+      <c r="BX68">
+        <v>0</v>
+      </c>
+      <c r="BZ68" s="1"/>
     </row>
-    <row r="69" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A69">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -16854,8 +17063,8 @@
       <c r="B69" t="s">
         <v>84</v>
       </c>
-      <c r="C69">
-        <v>0</v>
+      <c r="C69" t="s">
+        <v>1</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -16900,13 +17109,13 @@
         <v>0</v>
       </c>
       <c r="R69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S69">
         <v>1</v>
       </c>
       <c r="T69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U69">
         <v>0</v>
@@ -17073,9 +17282,12 @@
       <c r="BW69">
         <v>0</v>
       </c>
-      <c r="BY69" s="1"/>
+      <c r="BX69">
+        <v>0</v>
+      </c>
+      <c r="BZ69" s="1"/>
     </row>
-    <row r="70" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A70">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -17083,8 +17295,8 @@
       <c r="B70" t="s">
         <v>129</v>
       </c>
-      <c r="C70">
-        <v>0</v>
+      <c r="C70" t="s">
+        <v>1</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -17147,10 +17359,10 @@
         <v>0</v>
       </c>
       <c r="X70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z70">
         <v>0</v>
@@ -17168,10 +17380,10 @@
         <v>0</v>
       </c>
       <c r="AE70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG70">
         <v>0</v>
@@ -17302,9 +17514,12 @@
       <c r="BW70">
         <v>0</v>
       </c>
-      <c r="BY70" s="1"/>
+      <c r="BX70">
+        <v>0</v>
+      </c>
+      <c r="BZ70" s="1"/>
     </row>
-    <row r="71" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -17312,8 +17527,8 @@
       <c r="B71" t="s">
         <v>212</v>
       </c>
-      <c r="C71">
-        <v>0</v>
+      <c r="C71" t="s">
+        <v>1</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -17358,13 +17573,13 @@
         <v>0</v>
       </c>
       <c r="R71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S71">
         <v>1</v>
       </c>
       <c r="T71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U71">
         <v>0</v>
@@ -17531,9 +17746,12 @@
       <c r="BW71">
         <v>0</v>
       </c>
-      <c r="BY71" s="1"/>
+      <c r="BX71">
+        <v>0</v>
+      </c>
+      <c r="BZ71" s="1"/>
     </row>
-    <row r="72" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -17541,8 +17759,8 @@
       <c r="B72" t="s">
         <v>164</v>
       </c>
-      <c r="C72">
-        <v>0</v>
+      <c r="C72" t="s">
+        <v>1</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -17587,13 +17805,13 @@
         <v>0</v>
       </c>
       <c r="R72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S72">
         <v>1</v>
       </c>
       <c r="T72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U72">
         <v>0</v>
@@ -17760,9 +17978,12 @@
       <c r="BW72">
         <v>0</v>
       </c>
-      <c r="BY72" s="1"/>
+      <c r="BX72">
+        <v>0</v>
+      </c>
+      <c r="BZ72" s="1"/>
     </row>
-    <row r="73" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -17770,8 +17991,8 @@
       <c r="B73" t="s">
         <v>3</v>
       </c>
-      <c r="C73">
-        <v>0</v>
+      <c r="C73" t="s">
+        <v>1</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -17801,13 +18022,13 @@
         <v>0</v>
       </c>
       <c r="M73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N73">
         <v>1</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P73">
         <v>0</v>
@@ -17989,9 +18210,12 @@
       <c r="BW73">
         <v>0</v>
       </c>
-      <c r="BY73" s="1"/>
+      <c r="BX73">
+        <v>0</v>
+      </c>
+      <c r="BZ73" s="1"/>
     </row>
-    <row r="74" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -17999,8 +18223,8 @@
       <c r="B74" t="s">
         <v>47</v>
       </c>
-      <c r="C74">
-        <v>0</v>
+      <c r="C74" t="s">
+        <v>1</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -18030,13 +18254,13 @@
         <v>0</v>
       </c>
       <c r="M74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N74">
         <v>1</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P74">
         <v>0</v>
@@ -18218,9 +18442,12 @@
       <c r="BW74">
         <v>0</v>
       </c>
-      <c r="BY74" s="1"/>
+      <c r="BX74">
+        <v>0</v>
+      </c>
+      <c r="BZ74" s="1"/>
     </row>
-    <row r="75" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -18228,8 +18455,8 @@
       <c r="B75" t="s">
         <v>71</v>
       </c>
-      <c r="C75">
-        <v>0</v>
+      <c r="C75" t="s">
+        <v>69</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -18250,10 +18477,10 @@
         <v>0</v>
       </c>
       <c r="J75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75">
         <v>0</v>
@@ -18301,7 +18528,7 @@
         <v>0</v>
       </c>
       <c r="AA75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB75">
         <v>1</v>
@@ -18313,7 +18540,7 @@
         <v>1</v>
       </c>
       <c r="AE75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF75">
         <v>0</v>
@@ -18447,9 +18674,12 @@
       <c r="BW75">
         <v>0</v>
       </c>
-      <c r="BY75" s="1"/>
+      <c r="BX75">
+        <v>0</v>
+      </c>
+      <c r="BZ75" s="1"/>
     </row>
-    <row r="76" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -18457,8 +18687,8 @@
       <c r="B76" t="s">
         <v>11</v>
       </c>
-      <c r="C76">
-        <v>0</v>
+      <c r="C76" t="s">
+        <v>9</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -18479,10 +18709,10 @@
         <v>0</v>
       </c>
       <c r="J76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76">
         <v>0</v>
@@ -18530,7 +18760,7 @@
         <v>0</v>
       </c>
       <c r="AA76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB76">
         <v>1</v>
@@ -18542,16 +18772,16 @@
         <v>1</v>
       </c>
       <c r="AE76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF76">
         <v>0</v>
       </c>
       <c r="AG76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI76">
         <v>0</v>
@@ -18676,9 +18906,12 @@
       <c r="BW76">
         <v>0</v>
       </c>
-      <c r="BY76" s="1"/>
+      <c r="BX76">
+        <v>0</v>
+      </c>
+      <c r="BZ76" s="1"/>
     </row>
-    <row r="77" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -18686,8 +18919,8 @@
       <c r="B77" t="s">
         <v>92</v>
       </c>
-      <c r="C77">
-        <v>0</v>
+      <c r="C77" t="s">
+        <v>9</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -18717,13 +18950,13 @@
         <v>0</v>
       </c>
       <c r="M77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N77">
         <v>1</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P77">
         <v>0</v>
@@ -18905,9 +19138,12 @@
       <c r="BW77">
         <v>0</v>
       </c>
-      <c r="BY77" s="1"/>
+      <c r="BX77">
+        <v>0</v>
+      </c>
+      <c r="BZ77" s="1"/>
     </row>
-    <row r="78" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -18915,8 +19151,8 @@
       <c r="B78" t="s">
         <v>187</v>
       </c>
-      <c r="C78">
-        <v>0</v>
+      <c r="C78" t="s">
+        <v>9</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -19003,16 +19239,16 @@
         <v>0</v>
       </c>
       <c r="AF78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ78">
         <v>0</v>
@@ -19134,9 +19370,12 @@
       <c r="BW78">
         <v>0</v>
       </c>
-      <c r="BY78" s="1"/>
+      <c r="BX78">
+        <v>0</v>
+      </c>
+      <c r="BZ78" s="1"/>
     </row>
-    <row r="79" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -19144,8 +19383,8 @@
       <c r="B79" t="s">
         <v>121</v>
       </c>
-      <c r="C79">
-        <v>0</v>
+      <c r="C79" t="s">
+        <v>119</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -19166,10 +19405,10 @@
         <v>0</v>
       </c>
       <c r="J79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L79">
         <v>0</v>
@@ -19208,16 +19447,16 @@
         <v>0</v>
       </c>
       <c r="X79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z79">
         <v>0</v>
       </c>
       <c r="AA79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB79">
         <v>1</v>
@@ -19235,7 +19474,7 @@
         <v>1</v>
       </c>
       <c r="AG79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH79">
         <v>0</v>
@@ -19363,9 +19602,12 @@
       <c r="BW79">
         <v>0</v>
       </c>
-      <c r="BY79" s="1"/>
+      <c r="BX79">
+        <v>0</v>
+      </c>
+      <c r="BZ79" s="1"/>
     </row>
-    <row r="80" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -19373,8 +19615,8 @@
       <c r="B80" t="s">
         <v>193</v>
       </c>
-      <c r="C80">
-        <v>0</v>
+      <c r="C80" t="s">
+        <v>191</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -19395,10 +19637,10 @@
         <v>0</v>
       </c>
       <c r="J80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L80">
         <v>0</v>
@@ -19446,7 +19688,7 @@
         <v>0</v>
       </c>
       <c r="AA80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB80">
         <v>1</v>
@@ -19458,13 +19700,13 @@
         <v>1</v>
       </c>
       <c r="AE80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH80">
         <v>0</v>
@@ -19592,9 +19834,12 @@
       <c r="BW80">
         <v>0</v>
       </c>
-      <c r="BY80" s="1"/>
+      <c r="BX80">
+        <v>0</v>
+      </c>
+      <c r="BZ80" s="1"/>
     </row>
-    <row r="81" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -19602,8 +19847,8 @@
       <c r="B81" t="s">
         <v>206</v>
       </c>
-      <c r="C81">
-        <v>0</v>
+      <c r="C81" t="s">
+        <v>204</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -19624,10 +19869,10 @@
         <v>0</v>
       </c>
       <c r="J81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L81">
         <v>0</v>
@@ -19675,7 +19920,7 @@
         <v>0</v>
       </c>
       <c r="AA81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB81">
         <v>1</v>
@@ -19687,13 +19932,13 @@
         <v>1</v>
       </c>
       <c r="AE81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH81">
         <v>0</v>
@@ -19821,9 +20066,12 @@
       <c r="BW81">
         <v>0</v>
       </c>
-      <c r="BY81" s="1"/>
+      <c r="BX81">
+        <v>0</v>
+      </c>
+      <c r="BZ81" s="1"/>
     </row>
-    <row r="82" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A82">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -19831,8 +20079,8 @@
       <c r="B82" t="s">
         <v>209</v>
       </c>
-      <c r="C82">
-        <v>0</v>
+      <c r="C82" t="s">
+        <v>21</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -19853,10 +20101,10 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L82">
         <v>0</v>
@@ -19904,28 +20152,28 @@
         <v>0</v>
       </c>
       <c r="AA82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD82">
         <v>1</v>
       </c>
       <c r="AE82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG82">
         <v>1</v>
       </c>
       <c r="AH82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI82">
         <v>0</v>
@@ -20050,9 +20298,12 @@
       <c r="BW82">
         <v>0</v>
       </c>
-      <c r="BY82" s="1"/>
+      <c r="BX82">
+        <v>0</v>
+      </c>
+      <c r="BZ82" s="1"/>
     </row>
-    <row r="83" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -20060,8 +20311,8 @@
       <c r="B83" t="s">
         <v>90</v>
       </c>
-      <c r="C83">
-        <v>0</v>
+      <c r="C83" t="s">
+        <v>21</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -20091,13 +20342,13 @@
         <v>0</v>
       </c>
       <c r="M83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N83">
         <v>1</v>
       </c>
       <c r="O83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P83">
         <v>0</v>
@@ -20279,9 +20530,12 @@
       <c r="BW83">
         <v>0</v>
       </c>
-      <c r="BY83" s="1"/>
+      <c r="BX83">
+        <v>0</v>
+      </c>
+      <c r="BZ83" s="1"/>
     </row>
-    <row r="84" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -20289,8 +20543,8 @@
       <c r="B84" t="s">
         <v>23</v>
       </c>
-      <c r="C84">
-        <v>0</v>
+      <c r="C84" t="s">
+        <v>21</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -20320,13 +20574,13 @@
         <v>0</v>
       </c>
       <c r="M84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N84">
         <v>1</v>
       </c>
       <c r="O84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P84">
         <v>0</v>
@@ -20508,9 +20762,12 @@
       <c r="BW84">
         <v>0</v>
       </c>
-      <c r="BY84" s="1"/>
+      <c r="BX84">
+        <v>0</v>
+      </c>
+      <c r="BZ84" s="1"/>
     </row>
-    <row r="85" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A85">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -20518,8 +20775,8 @@
       <c r="B85" t="s">
         <v>198</v>
       </c>
-      <c r="C85">
-        <v>0</v>
+      <c r="C85" t="s">
+        <v>21</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -20558,13 +20815,13 @@
         <v>0</v>
       </c>
       <c r="P85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q85">
         <v>1</v>
       </c>
       <c r="R85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S85">
         <v>0</v>
@@ -20737,9 +20994,12 @@
       <c r="BW85">
         <v>0</v>
       </c>
-      <c r="BY85" s="1"/>
+      <c r="BX85">
+        <v>0</v>
+      </c>
+      <c r="BZ85" s="1"/>
     </row>
-    <row r="86" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A86">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -20747,8 +21007,8 @@
       <c r="B86" t="s">
         <v>62</v>
       </c>
-      <c r="C86">
-        <v>0</v>
+      <c r="C86" t="s">
+        <v>60</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -20778,13 +21038,13 @@
         <v>0</v>
       </c>
       <c r="M86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N86">
         <v>1</v>
       </c>
       <c r="O86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P86">
         <v>0</v>
@@ -20823,16 +21083,16 @@
         <v>0</v>
       </c>
       <c r="AB86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC86">
         <v>1</v>
       </c>
       <c r="AD86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF86">
         <v>1</v>
@@ -20844,7 +21104,7 @@
         <v>1</v>
       </c>
       <c r="AI86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ86">
         <v>0</v>
@@ -20966,9 +21226,12 @@
       <c r="BW86">
         <v>0</v>
       </c>
-      <c r="BY86" s="1"/>
+      <c r="BX86">
+        <v>0</v>
+      </c>
+      <c r="BZ86" s="1"/>
     </row>
-    <row r="87" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A87">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -20976,8 +21239,8 @@
       <c r="B87" t="s">
         <v>124</v>
       </c>
-      <c r="C87">
-        <v>0</v>
+      <c r="C87" t="s">
+        <v>80</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -20998,10 +21261,10 @@
         <v>0</v>
       </c>
       <c r="J87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L87">
         <v>0</v>
@@ -21049,7 +21312,7 @@
         <v>0</v>
       </c>
       <c r="AA87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB87">
         <v>1</v>
@@ -21061,7 +21324,7 @@
         <v>1</v>
       </c>
       <c r="AE87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF87">
         <v>0</v>
@@ -21195,9 +21458,12 @@
       <c r="BW87">
         <v>0</v>
       </c>
-      <c r="BY87" s="1"/>
+      <c r="BX87">
+        <v>0</v>
+      </c>
+      <c r="BZ87" s="1"/>
     </row>
-    <row r="88" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A88">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -21205,8 +21471,8 @@
       <c r="B88" t="s">
         <v>82</v>
       </c>
-      <c r="C88">
-        <v>0</v>
+      <c r="C88" t="s">
+        <v>80</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -21227,10 +21493,10 @@
         <v>0</v>
       </c>
       <c r="J88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L88">
         <v>0</v>
@@ -21278,7 +21544,7 @@
         <v>0</v>
       </c>
       <c r="AA88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB88">
         <v>1</v>
@@ -21290,7 +21556,7 @@
         <v>1</v>
       </c>
       <c r="AE88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF88">
         <v>0</v>
@@ -21424,9 +21690,12 @@
       <c r="BW88">
         <v>0</v>
       </c>
-      <c r="BY88" s="1"/>
+      <c r="BX88">
+        <v>0</v>
+      </c>
+      <c r="BZ88" s="1"/>
     </row>
-    <row r="89" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A89">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -21434,8 +21703,8 @@
       <c r="B89" t="s">
         <v>215</v>
       </c>
-      <c r="C89">
-        <v>0</v>
+      <c r="C89" t="s">
+        <v>80</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -21519,19 +21788,19 @@
         <v>0</v>
       </c>
       <c r="AE89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG89">
         <v>0</v>
       </c>
       <c r="AH89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ89">
         <v>0</v>
@@ -21653,9 +21922,12 @@
       <c r="BW89">
         <v>0</v>
       </c>
-      <c r="BY89" s="1"/>
+      <c r="BX89">
+        <v>0</v>
+      </c>
+      <c r="BZ89" s="1"/>
     </row>
-    <row r="90" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -21663,8 +21935,8 @@
       <c r="B90" t="s">
         <v>128</v>
       </c>
-      <c r="C90">
-        <v>0</v>
+      <c r="C90" t="s">
+        <v>126</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -21685,10 +21957,10 @@
         <v>0</v>
       </c>
       <c r="J90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L90">
         <v>0</v>
@@ -21736,7 +22008,7 @@
         <v>0</v>
       </c>
       <c r="AA90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB90">
         <v>1</v>
@@ -21748,7 +22020,7 @@
         <v>1</v>
       </c>
       <c r="AE90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF90">
         <v>0</v>
@@ -21882,9 +22154,12 @@
       <c r="BW90">
         <v>0</v>
       </c>
-      <c r="BY90" s="1"/>
+      <c r="BX90">
+        <v>0</v>
+      </c>
+      <c r="BZ90" s="1"/>
     </row>
-    <row r="91" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A91">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -21892,8 +22167,8 @@
       <c r="B91" t="s">
         <v>75</v>
       </c>
-      <c r="C91">
-        <v>0</v>
+      <c r="C91" t="s">
+        <v>73</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -21914,10 +22189,10 @@
         <v>0</v>
       </c>
       <c r="J91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L91">
         <v>0</v>
@@ -21965,7 +22240,7 @@
         <v>0</v>
       </c>
       <c r="AA91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB91">
         <v>1</v>
@@ -21977,7 +22252,7 @@
         <v>1</v>
       </c>
       <c r="AE91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF91">
         <v>0</v>
@@ -22111,9 +22386,12 @@
       <c r="BW91">
         <v>0</v>
       </c>
-      <c r="BY91" s="1"/>
+      <c r="BX91">
+        <v>0</v>
+      </c>
+      <c r="BZ91" s="1"/>
     </row>
-    <row r="92" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A92">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -22121,8 +22399,8 @@
       <c r="B92" t="s">
         <v>218</v>
       </c>
-      <c r="C92">
-        <v>0</v>
+      <c r="C92" t="s">
+        <v>73</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -22185,10 +22463,10 @@
         <v>0</v>
       </c>
       <c r="X92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z92">
         <v>0</v>
@@ -22206,10 +22484,10 @@
         <v>0</v>
       </c>
       <c r="AE92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG92">
         <v>0</v>
@@ -22340,9 +22618,12 @@
       <c r="BW92">
         <v>0</v>
       </c>
-      <c r="BY92" s="1"/>
+      <c r="BX92">
+        <v>0</v>
+      </c>
+      <c r="BZ92" s="1"/>
     </row>
-    <row r="93" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A93">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -22350,8 +22631,8 @@
       <c r="B93" t="s">
         <v>177</v>
       </c>
-      <c r="C93">
-        <v>0</v>
+      <c r="C93" t="s">
+        <v>175</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -22372,10 +22653,10 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93">
         <v>0</v>
@@ -22423,7 +22704,7 @@
         <v>0</v>
       </c>
       <c r="AA93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB93">
         <v>1</v>
@@ -22435,7 +22716,7 @@
         <v>1</v>
       </c>
       <c r="AE93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF93">
         <v>0</v>
@@ -22569,9 +22850,12 @@
       <c r="BW93">
         <v>0</v>
       </c>
-      <c r="BY93" s="1"/>
+      <c r="BX93">
+        <v>0</v>
+      </c>
+      <c r="BZ93" s="1"/>
     </row>
-    <row r="94" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A94">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -22579,8 +22863,8 @@
       <c r="B94" t="s">
         <v>211</v>
       </c>
-      <c r="C94">
-        <v>0</v>
+      <c r="C94" t="s">
+        <v>175</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -22643,10 +22927,10 @@
         <v>0</v>
       </c>
       <c r="X94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z94">
         <v>0</v>
@@ -22664,19 +22948,19 @@
         <v>0</v>
       </c>
       <c r="AE94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG94">
         <v>0</v>
       </c>
       <c r="AH94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ94">
         <v>0</v>
@@ -22798,9 +23082,12 @@
       <c r="BW94">
         <v>0</v>
       </c>
-      <c r="BY94" s="1"/>
+      <c r="BX94">
+        <v>0</v>
+      </c>
+      <c r="BZ94" s="1"/>
     </row>
-    <row r="95" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A95">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -22808,8 +23095,8 @@
       <c r="B95" t="s">
         <v>194</v>
       </c>
-      <c r="C95">
-        <v>0</v>
+      <c r="C95" t="s">
+        <v>158</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -22830,10 +23117,10 @@
         <v>0</v>
       </c>
       <c r="J95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L95">
         <v>0</v>
@@ -22881,7 +23168,7 @@
         <v>0</v>
       </c>
       <c r="AA95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB95">
         <v>1</v>
@@ -22893,13 +23180,13 @@
         <v>1</v>
       </c>
       <c r="AE95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH95">
         <v>0</v>
@@ -23027,9 +23314,12 @@
       <c r="BW95">
         <v>0</v>
       </c>
-      <c r="BY95" s="1"/>
+      <c r="BX95">
+        <v>0</v>
+      </c>
+      <c r="BZ95" s="1"/>
     </row>
-    <row r="96" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A96">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -23037,8 +23327,8 @@
       <c r="B96" t="s">
         <v>160</v>
       </c>
-      <c r="C96">
-        <v>0</v>
+      <c r="C96" t="s">
+        <v>158</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -23101,10 +23391,10 @@
         <v>0</v>
       </c>
       <c r="X96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z96">
         <v>0</v>
@@ -23122,19 +23412,19 @@
         <v>0</v>
       </c>
       <c r="AE96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG96">
         <v>0</v>
       </c>
       <c r="AH96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ96">
         <v>0</v>
@@ -23256,9 +23546,12 @@
       <c r="BW96">
         <v>0</v>
       </c>
-      <c r="BY96" s="1"/>
+      <c r="BX96">
+        <v>0</v>
+      </c>
+      <c r="BZ96" s="1"/>
     </row>
-    <row r="97" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A97">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -23266,8 +23559,8 @@
       <c r="B97" t="s">
         <v>146</v>
       </c>
-      <c r="C97">
-        <v>0</v>
+      <c r="C97" t="s">
+        <v>144</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -23288,10 +23581,10 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L97">
         <v>0</v>
@@ -23339,7 +23632,7 @@
         <v>0</v>
       </c>
       <c r="AA97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB97">
         <v>1</v>
@@ -23351,7 +23644,7 @@
         <v>1</v>
       </c>
       <c r="AE97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF97">
         <v>0</v>
@@ -23485,9 +23778,12 @@
       <c r="BW97">
         <v>0</v>
       </c>
-      <c r="BY97" s="1"/>
+      <c r="BX97">
+        <v>0</v>
+      </c>
+      <c r="BZ97" s="1"/>
     </row>
-    <row r="98" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A98">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -23495,8 +23791,8 @@
       <c r="B98" t="s">
         <v>173</v>
       </c>
-      <c r="C98">
-        <v>0</v>
+      <c r="C98" t="s">
+        <v>171</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -23580,19 +23876,19 @@
         <v>0</v>
       </c>
       <c r="AE98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG98">
         <v>0</v>
       </c>
       <c r="AH98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ98">
         <v>0</v>
@@ -23714,9 +24010,12 @@
       <c r="BW98">
         <v>0</v>
       </c>
-      <c r="BY98" s="1"/>
+      <c r="BX98">
+        <v>0</v>
+      </c>
+      <c r="BZ98" s="1"/>
     </row>
-    <row r="99" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A99">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -23724,8 +24023,8 @@
       <c r="B99" t="s">
         <v>52</v>
       </c>
-      <c r="C99">
-        <v>0</v>
+      <c r="C99" t="s">
+        <v>30</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -23746,10 +24045,10 @@
         <v>0</v>
       </c>
       <c r="J99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L99">
         <v>0</v>
@@ -23797,7 +24096,7 @@
         <v>0</v>
       </c>
       <c r="AA99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB99">
         <v>1</v>
@@ -23809,7 +24108,7 @@
         <v>1</v>
       </c>
       <c r="AE99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF99">
         <v>0</v>
@@ -23943,9 +24242,12 @@
       <c r="BW99">
         <v>0</v>
       </c>
-      <c r="BY99" s="1"/>
+      <c r="BX99">
+        <v>0</v>
+      </c>
+      <c r="BZ99" s="1"/>
     </row>
-    <row r="100" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A100">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -23953,8 +24255,8 @@
       <c r="B100" t="s">
         <v>32</v>
       </c>
-      <c r="C100">
-        <v>0</v>
+      <c r="C100" t="s">
+        <v>30</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -24038,19 +24340,19 @@
         <v>0</v>
       </c>
       <c r="AE100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG100">
         <v>0</v>
       </c>
       <c r="AH100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ100">
         <v>0</v>
@@ -24172,9 +24474,12 @@
       <c r="BW100">
         <v>0</v>
       </c>
-      <c r="BY100" s="1"/>
+      <c r="BX100">
+        <v>0</v>
+      </c>
+      <c r="BZ100" s="1"/>
     </row>
-    <row r="101" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A101">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -24182,8 +24487,8 @@
       <c r="B101" t="s">
         <v>137</v>
       </c>
-      <c r="C101">
-        <v>0</v>
+      <c r="C101" t="s">
+        <v>135</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -24228,13 +24533,13 @@
         <v>0</v>
       </c>
       <c r="R101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S101">
         <v>1</v>
       </c>
       <c r="T101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U101">
         <v>0</v>
@@ -24401,9 +24706,12 @@
       <c r="BW101">
         <v>0</v>
       </c>
-      <c r="BY101" s="1"/>
+      <c r="BX101">
+        <v>0</v>
+      </c>
+      <c r="BZ101" s="1"/>
     </row>
-    <row r="102" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A102">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -24411,8 +24719,8 @@
       <c r="B102" t="s">
         <v>185</v>
       </c>
-      <c r="C102">
-        <v>0</v>
+      <c r="C102" t="s">
+        <v>183</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -24457,13 +24765,13 @@
         <v>0</v>
       </c>
       <c r="R102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S102">
         <v>1</v>
       </c>
       <c r="T102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U102">
         <v>0</v>
@@ -24630,9 +24938,12 @@
       <c r="BW102">
         <v>0</v>
       </c>
-      <c r="BY102" s="1"/>
+      <c r="BX102">
+        <v>0</v>
+      </c>
+      <c r="BZ102" s="1"/>
     </row>
-    <row r="103" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A103">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -24640,8 +24951,8 @@
       <c r="B103" t="s">
         <v>108</v>
       </c>
-      <c r="C103">
-        <v>0</v>
+      <c r="C103" t="s">
+        <v>106</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -24758,7 +25069,7 @@
         <v>0</v>
       </c>
       <c r="AP103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ103">
         <v>1</v>
@@ -24770,7 +25081,7 @@
         <v>1</v>
       </c>
       <c r="AT103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU103">
         <v>0</v>
@@ -24859,9 +25170,12 @@
       <c r="BW103">
         <v>0</v>
       </c>
-      <c r="BY103" s="1"/>
+      <c r="BX103">
+        <v>0</v>
+      </c>
+      <c r="BZ103" s="1"/>
     </row>
-    <row r="104" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A104">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -24869,14 +25183,14 @@
       <c r="B104" t="s">
         <v>181</v>
       </c>
-      <c r="C104">
-        <v>1</v>
+      <c r="C104" t="s">
+        <v>106</v>
       </c>
       <c r="D104">
         <v>1</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -25088,9 +25402,12 @@
       <c r="BW104">
         <v>0</v>
       </c>
-      <c r="BY104" s="1"/>
+      <c r="BX104">
+        <v>0</v>
+      </c>
+      <c r="BZ104" s="1"/>
     </row>
-    <row r="105" spans="1:77" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A105">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -25098,8 +25415,8 @@
       <c r="B105" t="s">
         <v>117</v>
       </c>
-      <c r="C105">
-        <v>0</v>
+      <c r="C105" t="s">
+        <v>115</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -25135,13 +25452,13 @@
         <v>0</v>
       </c>
       <c r="O105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P105">
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R105">
         <v>0</v>
@@ -25153,22 +25470,22 @@
         <v>0</v>
       </c>
       <c r="U105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V105">
         <v>1</v>
       </c>
       <c r="W105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X105">
         <v>0</v>
       </c>
       <c r="Y105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA105">
         <v>0</v>
@@ -25317,13 +25634,17 @@
       <c r="BW105">
         <v>0</v>
       </c>
-      <c r="BY105" s="1"/>
+      <c r="BX105">
+        <v>0</v>
+      </c>
+      <c r="BZ105" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="B2:BY105">
-    <sortCondition ref="BY2:BY105"/>
+  <sortState ref="B2:BZ105">
+    <sortCondition ref="BZ2:BZ105"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -25331,8 +25652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
